--- a/spreadsheets/Kennen.xlsx
+++ b/spreadsheets/Kennen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC11A83-D891-44C3-9F64-5F6CBEEFF66A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A1A1D7-84C4-42D2-A1FE-BF346A510317}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/y7mrQo6.png</t>
+  </si>
+  <si>
+    <t>discord</t>
   </si>
 </sst>
 </file>
@@ -880,13 +883,13 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -970,31 +973,36 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1012,7 +1020,7 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{F30A1E27-0B1C-4069-B261-886F8E61B88A}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{2AEE98E0-3D01-4F0A-8C66-51BA31736CB5}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{02FC56B7-EFE2-4F65-9B2A-CD7C5D8A5A72}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{EDD70A0E-82DA-4456-A165-0CC860186C40}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{EDD70A0E-82DA-4456-A165-0CC860186C40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
